--- a/json/2021年度值班统计.xlsx
+++ b/json/2021年度值班统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\通告室\h5-bill-master\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1240A92B-4645-47B5-A5E1-758D045C42EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C508754-7CEE-41E1-9D57-22D7A063DD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="7" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
